--- a/Code/Results/Cases/Case_4_109/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_109/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.546370833098649</v>
+        <v>0.8053624310004466</v>
       </c>
       <c r="C2">
-        <v>0.7531775019882332</v>
+        <v>0.2430607420111528</v>
       </c>
       <c r="D2">
-        <v>0.2078745721341022</v>
+        <v>0.07976951290095258</v>
       </c>
       <c r="E2">
-        <v>1.448222610520816</v>
+        <v>0.4261583003367519</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4157175331928471</v>
+        <v>0.2829097545395314</v>
       </c>
       <c r="H2">
-        <v>0.2557270111888812</v>
+        <v>0.4154558441493634</v>
       </c>
       <c r="I2">
-        <v>0.1415212969366841</v>
+        <v>0.2692619540102292</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6238655626741973</v>
+        <v>0.7912964530252466</v>
       </c>
       <c r="O2">
-        <v>1.369174080438341</v>
+        <v>1.319573005448774</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.217970833774359</v>
+        <v>0.7040990595721155</v>
       </c>
       <c r="C3">
-        <v>0.6605293626516016</v>
+        <v>0.2141160009225587</v>
       </c>
       <c r="D3">
-        <v>0.1801040036632884</v>
+        <v>0.07218912734981586</v>
       </c>
       <c r="E3">
-        <v>1.243162005119487</v>
+        <v>0.3716950293549672</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.366081143947099</v>
+        <v>0.2735515995547644</v>
       </c>
       <c r="H3">
-        <v>0.2388960206085642</v>
+        <v>0.4153253780719126</v>
       </c>
       <c r="I3">
-        <v>0.1376447679303645</v>
+        <v>0.2721510507137133</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6223370301163769</v>
+        <v>0.7924410893878928</v>
       </c>
       <c r="O3">
-        <v>1.228288853136547</v>
+        <v>1.299146145657829</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.016581580092407</v>
+        <v>0.641768240904014</v>
       </c>
       <c r="C4">
-        <v>0.6037267331992382</v>
+        <v>0.1962558766066422</v>
       </c>
       <c r="D4">
-        <v>0.1632285160878553</v>
+        <v>0.067569147290925</v>
       </c>
       <c r="E4">
-        <v>1.119628027112853</v>
+        <v>0.3383453989565481</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3366861512718202</v>
+        <v>0.268097865472825</v>
       </c>
       <c r="H4">
-        <v>0.2292063885652453</v>
+        <v>0.4155251206244088</v>
       </c>
       <c r="I4">
-        <v>0.1359080913387949</v>
+        <v>0.2741748367591264</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6222098048063174</v>
+        <v>0.7934924659542872</v>
       </c>
       <c r="O4">
-        <v>1.145417197059061</v>
+        <v>1.287798132332171</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.934544661762459</v>
+        <v>0.6163303107064166</v>
       </c>
       <c r="C5">
-        <v>0.580589156093879</v>
+        <v>0.1889558737278207</v>
       </c>
       <c r="D5">
-        <v>0.1563902101137131</v>
+        <v>0.06569510267496526</v>
       </c>
       <c r="E5">
-        <v>1.069793126751321</v>
+        <v>0.3247762222429884</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3249538146163928</v>
+        <v>0.2659484127097045</v>
       </c>
       <c r="H5">
-        <v>0.2254083754964711</v>
+        <v>0.4156767555073628</v>
       </c>
       <c r="I5">
-        <v>0.1353513589166297</v>
+        <v>0.2750621419866732</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6223540863327486</v>
+        <v>0.7940087357526551</v>
       </c>
       <c r="O5">
-        <v>1.112481102611326</v>
+        <v>1.283472681428663</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.920923468477781</v>
+        <v>0.6121041278771884</v>
       </c>
       <c r="C6">
-        <v>0.5767474728110358</v>
+        <v>0.1877424012540985</v>
       </c>
       <c r="D6">
-        <v>0.1552568879797604</v>
+        <v>0.0653844400210204</v>
       </c>
       <c r="E6">
-        <v>1.061546143484748</v>
+        <v>0.3225242901737317</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3230198283245187</v>
+        <v>0.2655958916806611</v>
       </c>
       <c r="H6">
-        <v>0.2247864908669612</v>
+        <v>0.4157061727293865</v>
       </c>
       <c r="I6">
-        <v>0.1352677278837611</v>
+        <v>0.2752132520942361</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6223896686346109</v>
+        <v>0.7940997716770326</v>
       </c>
       <c r="O6">
-        <v>1.107060304090936</v>
+        <v>1.282772461159368</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.015475117145826</v>
+        <v>0.6414253266770515</v>
       </c>
       <c r="C7">
-        <v>0.6034146654569668</v>
+        <v>0.1961575143731125</v>
       </c>
       <c r="D7">
-        <v>0.1631361432084191</v>
+        <v>0.067543838329712</v>
       </c>
       <c r="E7">
-        <v>1.118954001058853</v>
+        <v>0.3381623173800676</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3365269601437149</v>
+        <v>0.2680685823256397</v>
       </c>
       <c r="H7">
-        <v>0.2291545721801214</v>
+        <v>0.4155268814108837</v>
       </c>
       <c r="I7">
-        <v>0.1358999856040626</v>
+        <v>0.2741865501327077</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.622210966582621</v>
+        <v>0.793499072713594</v>
       </c>
       <c r="O7">
-        <v>1.144969729646988</v>
+        <v>1.287738589086189</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.433066608961781</v>
+        <v>0.7704796668114682</v>
       </c>
       <c r="C8">
-        <v>0.7212080674760841</v>
+        <v>0.2330989905123886</v>
       </c>
       <c r="D8">
-        <v>0.1982593180786836</v>
+        <v>0.07714864193556537</v>
       </c>
       <c r="E8">
-        <v>1.376967809631168</v>
+        <v>0.4073593540735629</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3983623387126016</v>
+        <v>0.279622115344651</v>
       </c>
       <c r="H8">
-        <v>0.2497827151773038</v>
+        <v>0.4153526956168321</v>
       </c>
       <c r="I8">
-        <v>0.1400443707681127</v>
+        <v>0.2702061123012349</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6231652398146181</v>
+        <v>0.7916188808979925</v>
       </c>
       <c r="O8">
-        <v>1.3197939728378</v>
+        <v>1.312281167607694</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.255553754764037</v>
+        <v>1.022283190993846</v>
       </c>
       <c r="C9">
-        <v>0.9534246522754586</v>
+        <v>0.3048356044010347</v>
       </c>
       <c r="D9">
-        <v>0.2688036881319817</v>
+        <v>0.09625843345085627</v>
       </c>
       <c r="E9">
-        <v>1.906326576389816</v>
+        <v>0.5438654983744726</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5294606739289947</v>
+        <v>0.3046208002748614</v>
       </c>
       <c r="H9">
-        <v>0.2959111725254928</v>
+        <v>0.4172382159653552</v>
       </c>
       <c r="I9">
-        <v>0.1538024092260919</v>
+        <v>0.2643938076348746</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6318558489762864</v>
+        <v>0.7906908200730953</v>
       </c>
       <c r="O9">
-        <v>1.695282409858919</v>
+        <v>1.369948641587769</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.864539930182502</v>
+        <v>1.206466752585186</v>
       </c>
       <c r="C10">
-        <v>1.125658508281759</v>
+        <v>0.3571050245740537</v>
       </c>
       <c r="D10">
-        <v>0.3220632421152061</v>
+        <v>0.1104698725585678</v>
       </c>
       <c r="E10">
-        <v>2.316666367959712</v>
+        <v>0.6447828074138613</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6336821115948794</v>
+        <v>0.3244502324685499</v>
       </c>
       <c r="H10">
-        <v>0.3341145871498554</v>
+        <v>0.4199913196834331</v>
       </c>
       <c r="I10">
-        <v>0.1681332533419884</v>
+        <v>0.2613536708444606</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6429709675929303</v>
+        <v>0.7916833697626657</v>
       </c>
       <c r="O10">
-        <v>1.996888462760637</v>
+        <v>1.418228385698455</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.143236094693975</v>
+        <v>1.290071784059194</v>
       </c>
       <c r="C11">
-        <v>1.204587780683823</v>
+        <v>0.380788379983187</v>
       </c>
       <c r="D11">
-        <v>0.3467040522987759</v>
+        <v>0.11697319245269</v>
       </c>
       <c r="E11">
-        <v>2.509849036742082</v>
+        <v>0.6908578334543591</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6832832297468912</v>
+        <v>0.3337964840977179</v>
       </c>
       <c r="H11">
-        <v>0.3526417483906243</v>
+        <v>0.4215430416844583</v>
       </c>
       <c r="I11">
-        <v>0.1757638303784042</v>
+        <v>0.2602409959483651</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6491936858007676</v>
+        <v>0.7924970884570683</v>
       </c>
       <c r="O11">
-        <v>2.141127543869771</v>
+        <v>1.441496808335188</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.249068419923788</v>
+        <v>1.321703772474734</v>
       </c>
       <c r="C12">
-        <v>1.234580332392056</v>
+        <v>0.389742914226872</v>
       </c>
       <c r="D12">
-        <v>0.3561034211106744</v>
+        <v>0.1194414037149585</v>
       </c>
       <c r="E12">
-        <v>2.584119254141143</v>
+        <v>0.7083314840976556</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7024247060059992</v>
+        <v>0.3373830824541244</v>
       </c>
       <c r="H12">
-        <v>0.3598422257812075</v>
+        <v>0.4221738487475761</v>
       </c>
       <c r="I12">
-        <v>0.1788311474109783</v>
+        <v>0.2598587874370644</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6517304656431406</v>
+        <v>0.792857182114787</v>
       </c>
       <c r="O12">
-        <v>2.196893136058407</v>
+        <v>1.450497294622693</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.226261394674509</v>
+        <v>1.314892499562006</v>
       </c>
       <c r="C13">
-        <v>1.228115933279014</v>
+        <v>0.3878150150122792</v>
       </c>
       <c r="D13">
-        <v>0.3540759020216342</v>
+        <v>0.1189095834145348</v>
       </c>
       <c r="E13">
-        <v>2.568071076382267</v>
+        <v>0.7045670308366567</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6982855534094057</v>
+        <v>0.3366085287594842</v>
       </c>
       <c r="H13">
-        <v>0.358282929408233</v>
+        <v>0.4220360690814573</v>
       </c>
       <c r="I13">
-        <v>0.1781623337786087</v>
+        <v>0.2599393579493814</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6511758899913218</v>
+        <v>0.7927773207179172</v>
       </c>
       <c r="O13">
-        <v>2.184829802359815</v>
+        <v>1.448550438788999</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.151936701847717</v>
+        <v>1.292674724338383</v>
       </c>
       <c r="C14">
-        <v>1.207053080730645</v>
+        <v>0.3815253538617753</v>
       </c>
       <c r="D14">
-        <v>0.347475917664454</v>
+        <v>0.117176142465766</v>
       </c>
       <c r="E14">
-        <v>2.515935809541872</v>
+        <v>0.6922948678940912</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6848505572109786</v>
+        <v>0.3340906031593391</v>
       </c>
       <c r="H14">
-        <v>0.3532303164106878</v>
+        <v>0.4215940717668758</v>
       </c>
       <c r="I14">
-        <v>0.1760125081485882</v>
+        <v>0.2602087655124343</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6493986971054397</v>
+        <v>0.7925256730147794</v>
       </c>
       <c r="O14">
-        <v>2.145691643547735</v>
+        <v>1.442233482632076</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.106451035390421</v>
+        <v>1.279062082978839</v>
       </c>
       <c r="C15">
-        <v>1.194165635487821</v>
+        <v>0.3776709442585116</v>
       </c>
       <c r="D15">
-        <v>0.3434424316040747</v>
+        <v>0.1161150823874522</v>
       </c>
       <c r="E15">
-        <v>2.48415253990818</v>
+        <v>0.6847812640872917</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6766693083988571</v>
+        <v>0.3325544866149386</v>
       </c>
       <c r="H15">
-        <v>0.3501601049857896</v>
+        <v>0.4213289668501119</v>
       </c>
       <c r="I15">
-        <v>0.1747193937237839</v>
+        <v>0.2603788902444677</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6483339980634355</v>
+        <v>0.7923782940422655</v>
       </c>
       <c r="O15">
-        <v>2.121871750796458</v>
+        <v>1.438388853119591</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.846364695321938</v>
+        <v>1.200999205588005</v>
       </c>
       <c r="C16">
-        <v>1.120513644396055</v>
+        <v>0.3555553404717102</v>
       </c>
       <c r="D16">
-        <v>0.3204619701719054</v>
+        <v>0.1100456405173134</v>
       </c>
       <c r="E16">
-        <v>2.30418731830872</v>
+        <v>0.6417752309760374</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6304882660979843</v>
+        <v>0.3238460333736697</v>
       </c>
       <c r="H16">
-        <v>0.3329285235315069</v>
+        <v>0.4198959478975297</v>
       </c>
       <c r="I16">
-        <v>0.1676584378005757</v>
+        <v>0.2614318488204255</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6425888265686837</v>
+        <v>0.7916374686683696</v>
       </c>
       <c r="O16">
-        <v>1.987614803147892</v>
+        <v>1.416734140311974</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.687275092252435</v>
+        <v>1.153062806073478</v>
       </c>
       <c r="C17">
-        <v>1.075492699308626</v>
+        <v>0.3419637878972424</v>
       </c>
       <c r="D17">
-        <v>0.3064761229999533</v>
+        <v>0.1063320962832819</v>
       </c>
       <c r="E17">
-        <v>2.195573561619611</v>
+        <v>0.6154366654292716</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6027483536217773</v>
+        <v>0.3185874898250063</v>
       </c>
       <c r="H17">
-        <v>0.3226648802915264</v>
+        <v>0.4190936151605342</v>
       </c>
       <c r="I17">
-        <v>0.1636236726767848</v>
+        <v>0.2621472257548625</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6393717662120508</v>
+        <v>0.791275671847302</v>
       </c>
       <c r="O17">
-        <v>1.907145619594672</v>
+        <v>1.403785152989343</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.595923968303111</v>
+        <v>1.125474103808187</v>
       </c>
       <c r="C18">
-        <v>1.049651003018852</v>
+        <v>0.3341374303607552</v>
       </c>
       <c r="D18">
-        <v>0.2984700961431201</v>
+        <v>0.1041997835428106</v>
       </c>
       <c r="E18">
-        <v>2.133703171528225</v>
+        <v>0.6003030401099494</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5869963853041895</v>
+        <v>0.3155935431691006</v>
       </c>
       <c r="H18">
-        <v>0.3168683017820513</v>
+        <v>0.4186602983889998</v>
       </c>
       <c r="I18">
-        <v>0.1614064204683032</v>
+        <v>0.2625841173189016</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6376303682975362</v>
+        <v>0.7911016753837998</v>
       </c>
       <c r="O18">
-        <v>1.86151547631448</v>
+        <v>1.396460050301471</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.565018698662641</v>
+        <v>1.116130174204727</v>
       </c>
       <c r="C19">
-        <v>1.040909994360334</v>
+        <v>0.3314860478143089</v>
       </c>
       <c r="D19">
-        <v>0.2957657014063813</v>
+        <v>0.1034784403433662</v>
       </c>
       <c r="E19">
-        <v>2.112853139703105</v>
+        <v>0.5951816771887337</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5816966971477484</v>
+        <v>0.3145850884941979</v>
       </c>
       <c r="H19">
-        <v>0.3149234592355725</v>
+        <v>0.4185184170342211</v>
       </c>
       <c r="I19">
-        <v>0.1606729430311091</v>
+        <v>0.2627364000042292</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6370591080461026</v>
+        <v>0.7910486238095302</v>
       </c>
       <c r="O19">
-        <v>1.846174302008961</v>
+        <v>1.394000944585144</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.704194225335357</v>
+        <v>1.158167482357612</v>
       </c>
       <c r="C20">
-        <v>1.080279613302167</v>
+        <v>0.3434115504925614</v>
       </c>
       <c r="D20">
-        <v>0.3079609171670228</v>
+        <v>0.1067270346829616</v>
       </c>
       <c r="E20">
-        <v>2.207072222077443</v>
+        <v>0.6182388196532997</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6056799722590114</v>
+        <v>0.3191440969600592</v>
       </c>
       <c r="H20">
-        <v>0.323746274306373</v>
+        <v>0.4191761088335397</v>
       </c>
       <c r="I20">
-        <v>0.1640423502494102</v>
+        <v>0.2620684392508892</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6397028614820499</v>
+        <v>0.7913106575127244</v>
       </c>
       <c r="O20">
-        <v>1.915643132414885</v>
+        <v>1.405150873481546</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.173759145965846</v>
+        <v>1.299201378811574</v>
       </c>
       <c r="C21">
-        <v>1.213236760110078</v>
+        <v>0.3833731576210653</v>
       </c>
       <c r="D21">
-        <v>0.3494125594559279</v>
+        <v>0.1176851454873997</v>
       </c>
       <c r="E21">
-        <v>2.531217359810114</v>
+        <v>0.6958987770053966</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6887866382207193</v>
+        <v>0.3348288889173432</v>
       </c>
       <c r="H21">
-        <v>0.3547092144797261</v>
+        <v>0.4217227232650345</v>
       </c>
       <c r="I21">
-        <v>0.176638987097121</v>
+        <v>0.2601285696601039</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6499157004917322</v>
+        <v>0.7925981789636865</v>
       </c>
       <c r="O21">
-        <v>2.15715525146959</v>
+        <v>1.444083778068062</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.48240404156968</v>
+        <v>1.391214701534636</v>
       </c>
       <c r="C22">
-        <v>1.300748004429522</v>
+        <v>0.4094095871954551</v>
       </c>
       <c r="D22">
-        <v>0.3769072904570976</v>
+        <v>0.1248792321701728</v>
       </c>
       <c r="E22">
-        <v>2.749672399775051</v>
+        <v>0.7468067570364241</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7452155494441541</v>
+        <v>0.3453561977830759</v>
       </c>
       <c r="H22">
-        <v>0.3760320989849646</v>
+        <v>0.4236389825825313</v>
       </c>
       <c r="I22">
-        <v>0.1859175299348088</v>
+        <v>0.2590890001771697</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6576483686791335</v>
+        <v>0.7937424332167495</v>
       </c>
       <c r="O22">
-        <v>2.32174584348104</v>
+        <v>1.470632404613838</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.317493279322207</v>
+        <v>1.342120602643718</v>
       </c>
       <c r="C23">
-        <v>1.253977817714599</v>
+        <v>0.3955209400106696</v>
       </c>
       <c r="D23">
-        <v>0.3621926767722101</v>
+        <v>0.1210366501441342</v>
       </c>
       <c r="E23">
-        <v>2.632408419769135</v>
+        <v>0.7196215744520345</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7148893145168245</v>
+        <v>0.3397121083495449</v>
       </c>
       <c r="H23">
-        <v>0.3645452374994278</v>
+        <v>0.4225931364066184</v>
       </c>
       <c r="I23">
-        <v>0.180863286504902</v>
+        <v>0.2596228643692662</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6534200342769338</v>
+        <v>0.7931040591310818</v>
       </c>
       <c r="O23">
-        <v>2.23323544556041</v>
+        <v>1.456361422674149</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.696544741837727</v>
+        <v>1.155859749770116</v>
       </c>
       <c r="C24">
-        <v>1.078115321908939</v>
+        <v>0.342757055609809</v>
       </c>
       <c r="D24">
-        <v>0.3072895345568014</v>
+        <v>0.1065484747707899</v>
       </c>
       <c r="E24">
-        <v>2.20187190579027</v>
+        <v>0.6169719386100354</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6043539799805728</v>
+        <v>0.3188923637701038</v>
       </c>
       <c r="H24">
-        <v>0.3232570531921084</v>
+        <v>0.419138726372708</v>
       </c>
       <c r="I24">
-        <v>0.1638527485393517</v>
+        <v>0.2621039788674047</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6395528374444268</v>
+        <v>0.7912947345538015</v>
       </c>
       <c r="O24">
-        <v>1.911799446184403</v>
+        <v>1.404533059290458</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.032419373199957</v>
+        <v>0.9543040993675618</v>
       </c>
       <c r="C25">
-        <v>0.8903876516984042</v>
+        <v>0.2855050429776043</v>
       </c>
       <c r="D25">
-        <v>0.249500248959194</v>
+        <v>0.09105890053938026</v>
       </c>
       <c r="E25">
-        <v>1.75992823778769</v>
+        <v>0.5068365844614391</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4927552169072982</v>
+        <v>0.2976036262695487</v>
       </c>
       <c r="H25">
-        <v>0.2827410293176342</v>
+        <v>0.4164886654822766</v>
       </c>
       <c r="I25">
-        <v>0.1494001046919529</v>
+        <v>0.2657512451560784</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6287182952816721</v>
+        <v>0.7906473227258317</v>
       </c>
       <c r="O25">
-        <v>1.589636199749151</v>
+        <v>1.3533168933985</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_109/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_109/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8053624310004466</v>
+        <v>2.546370833098536</v>
       </c>
       <c r="C2">
-        <v>0.2430607420111528</v>
+        <v>0.7531775019882616</v>
       </c>
       <c r="D2">
-        <v>0.07976951290095258</v>
+        <v>0.2078745721339885</v>
       </c>
       <c r="E2">
-        <v>0.4261583003367519</v>
+        <v>1.448222610520787</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2829097545395314</v>
+        <v>0.4157175331928755</v>
       </c>
       <c r="H2">
-        <v>0.4154558441493634</v>
+        <v>0.2557270111888954</v>
       </c>
       <c r="I2">
-        <v>0.2692619540102292</v>
+        <v>0.1415212969366983</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7912964530252466</v>
+        <v>0.6238655626741902</v>
       </c>
       <c r="O2">
-        <v>1.319573005448774</v>
+        <v>1.369174080438285</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7040990595721155</v>
+        <v>2.217970833774473</v>
       </c>
       <c r="C3">
-        <v>0.2141160009225587</v>
+        <v>0.6605293626515731</v>
       </c>
       <c r="D3">
-        <v>0.07218912734981586</v>
+        <v>0.1801040036633879</v>
       </c>
       <c r="E3">
-        <v>0.3716950293549672</v>
+        <v>1.243162005119487</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2735515995547644</v>
+        <v>0.3660811439470564</v>
       </c>
       <c r="H3">
-        <v>0.4153253780719126</v>
+        <v>0.23889602060855</v>
       </c>
       <c r="I3">
-        <v>0.2721510507137133</v>
+        <v>0.1376447679303645</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7924410893878928</v>
+        <v>0.6223370301163627</v>
       </c>
       <c r="O3">
-        <v>1.299146145657829</v>
+        <v>1.228288853136519</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.641768240904014</v>
+        <v>2.016581580092407</v>
       </c>
       <c r="C4">
-        <v>0.1962558766066422</v>
+        <v>0.6037267331990677</v>
       </c>
       <c r="D4">
-        <v>0.067569147290925</v>
+        <v>0.1632285160876421</v>
       </c>
       <c r="E4">
-        <v>0.3383453989565481</v>
+        <v>1.119628027112853</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.268097865472825</v>
+        <v>0.3366861512718202</v>
       </c>
       <c r="H4">
-        <v>0.4155251206244088</v>
+        <v>0.2292063885651316</v>
       </c>
       <c r="I4">
-        <v>0.2741748367591264</v>
+        <v>0.1359080913388233</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7934924659542872</v>
+        <v>0.6222098048063032</v>
       </c>
       <c r="O4">
-        <v>1.287798132332171</v>
+        <v>1.145417197059118</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6163303107064166</v>
+        <v>1.934544661762487</v>
       </c>
       <c r="C5">
-        <v>0.1889558737278207</v>
+        <v>0.580589156093879</v>
       </c>
       <c r="D5">
-        <v>0.06569510267496526</v>
+        <v>0.1563902101139405</v>
       </c>
       <c r="E5">
-        <v>0.3247762222429884</v>
+        <v>1.069793126751307</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2659484127097045</v>
+        <v>0.3249538146163644</v>
       </c>
       <c r="H5">
-        <v>0.4156767555073628</v>
+        <v>0.2254083754964711</v>
       </c>
       <c r="I5">
-        <v>0.2750621419866732</v>
+        <v>0.1353513589166262</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7940087357526551</v>
+        <v>0.6223540863327415</v>
       </c>
       <c r="O5">
-        <v>1.283472681428663</v>
+        <v>1.112481102611298</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6121041278771884</v>
+        <v>1.920923468477923</v>
       </c>
       <c r="C6">
-        <v>0.1877424012540985</v>
+        <v>0.5767474728110358</v>
       </c>
       <c r="D6">
-        <v>0.0653844400210204</v>
+        <v>0.1552568879797462</v>
       </c>
       <c r="E6">
-        <v>0.3225242901737317</v>
+        <v>1.061546143484748</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2655958916806611</v>
+        <v>0.3230198283245329</v>
       </c>
       <c r="H6">
-        <v>0.4157061727293865</v>
+        <v>0.2247864908670891</v>
       </c>
       <c r="I6">
-        <v>0.2752132520942361</v>
+        <v>0.1352677278837504</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7940997716770326</v>
+        <v>0.6223896686345682</v>
       </c>
       <c r="O6">
-        <v>1.282772461159368</v>
+        <v>1.107060304090908</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6414253266770515</v>
+        <v>2.015475117145712</v>
       </c>
       <c r="C7">
-        <v>0.1961575143731125</v>
+        <v>0.6034146654569099</v>
       </c>
       <c r="D7">
-        <v>0.067543838329712</v>
+        <v>0.1631361432083906</v>
       </c>
       <c r="E7">
-        <v>0.3381623173800676</v>
+        <v>1.118954001058867</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2680685823256397</v>
+        <v>0.3365269601436154</v>
       </c>
       <c r="H7">
-        <v>0.4155268814108837</v>
+        <v>0.2291545721801214</v>
       </c>
       <c r="I7">
-        <v>0.2741865501327077</v>
+        <v>0.1358999856040803</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.793499072713594</v>
+        <v>0.6222109665825997</v>
       </c>
       <c r="O7">
-        <v>1.287738589086189</v>
+        <v>1.144969729646903</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7704796668114682</v>
+        <v>2.433066608961894</v>
       </c>
       <c r="C8">
-        <v>0.2330989905123886</v>
+        <v>0.7212080674761694</v>
       </c>
       <c r="D8">
-        <v>0.07714864193556537</v>
+        <v>0.1982593180788399</v>
       </c>
       <c r="E8">
-        <v>0.4073593540735629</v>
+        <v>1.376967809631168</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.279622115344651</v>
+        <v>0.3983623387126016</v>
       </c>
       <c r="H8">
-        <v>0.4153526956168321</v>
+        <v>0.2497827151771901</v>
       </c>
       <c r="I8">
-        <v>0.2702061123012349</v>
+        <v>0.1400443707681269</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7916188808979925</v>
+        <v>0.623165239814611</v>
       </c>
       <c r="O8">
-        <v>1.312281167607694</v>
+        <v>1.3197939728378</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.022283190993846</v>
+        <v>3.25555375476398</v>
       </c>
       <c r="C9">
-        <v>0.3048356044010347</v>
+        <v>0.9534246522754017</v>
       </c>
       <c r="D9">
-        <v>0.09625843345085627</v>
+        <v>0.2688036881319391</v>
       </c>
       <c r="E9">
-        <v>0.5438654983744726</v>
+        <v>1.906326576389816</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3046208002748614</v>
+        <v>0.5294606739289804</v>
       </c>
       <c r="H9">
-        <v>0.4172382159653552</v>
+        <v>0.2959111725255212</v>
       </c>
       <c r="I9">
-        <v>0.2643938076348746</v>
+        <v>0.1538024092260919</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7906908200730953</v>
+        <v>0.6318558489762864</v>
       </c>
       <c r="O9">
-        <v>1.369948641587769</v>
+        <v>1.695282409858976</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.206466752585186</v>
+        <v>3.864539930182559</v>
       </c>
       <c r="C10">
-        <v>0.3571050245740537</v>
+        <v>1.125658508281759</v>
       </c>
       <c r="D10">
-        <v>0.1104698725585678</v>
+        <v>0.322063242115334</v>
       </c>
       <c r="E10">
-        <v>0.6447828074138613</v>
+        <v>2.316666367959684</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3244502324685499</v>
+        <v>0.6336821115948226</v>
       </c>
       <c r="H10">
-        <v>0.4199913196834331</v>
+        <v>0.3341145871498554</v>
       </c>
       <c r="I10">
-        <v>0.2613536708444606</v>
+        <v>0.1681332533419742</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7916833697626657</v>
+        <v>0.6429709675929303</v>
       </c>
       <c r="O10">
-        <v>1.418228385698455</v>
+        <v>1.996888462760694</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.290071784059194</v>
+        <v>4.143236094694146</v>
       </c>
       <c r="C11">
-        <v>0.380788379983187</v>
+        <v>1.20458778068388</v>
       </c>
       <c r="D11">
-        <v>0.11697319245269</v>
+        <v>0.3467040522987048</v>
       </c>
       <c r="E11">
-        <v>0.6908578334543591</v>
+        <v>2.509849036742082</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3337964840977179</v>
+        <v>0.6832832297468769</v>
       </c>
       <c r="H11">
-        <v>0.4215430416844583</v>
+        <v>0.3526417483906243</v>
       </c>
       <c r="I11">
-        <v>0.2602409959483651</v>
+        <v>0.1757638303784006</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7924970884570683</v>
+        <v>0.6491936858008245</v>
       </c>
       <c r="O11">
-        <v>1.441496808335188</v>
+        <v>2.141127543869828</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.321703772474734</v>
+        <v>4.249068419923674</v>
       </c>
       <c r="C12">
-        <v>0.389742914226872</v>
+        <v>1.234580332391658</v>
       </c>
       <c r="D12">
-        <v>0.1194414037149585</v>
+        <v>0.3561034211106744</v>
       </c>
       <c r="E12">
-        <v>0.7083314840976556</v>
+        <v>2.584119254141157</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3373830824541244</v>
+        <v>0.7024247060059992</v>
       </c>
       <c r="H12">
-        <v>0.4221738487475761</v>
+        <v>0.3598422257811933</v>
       </c>
       <c r="I12">
-        <v>0.2598587874370644</v>
+        <v>0.1788311474109747</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.792857182114787</v>
+        <v>0.6517304656431406</v>
       </c>
       <c r="O12">
-        <v>1.450497294622693</v>
+        <v>2.196893136058435</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.314892499562006</v>
+        <v>4.226261394674452</v>
       </c>
       <c r="C13">
-        <v>0.3878150150122792</v>
+        <v>1.228115933279014</v>
       </c>
       <c r="D13">
-        <v>0.1189095834145348</v>
+        <v>0.3540759020214921</v>
       </c>
       <c r="E13">
-        <v>0.7045670308366567</v>
+        <v>2.568071076382253</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3366085287594842</v>
+        <v>0.6982855534094483</v>
       </c>
       <c r="H13">
-        <v>0.4220360690814573</v>
+        <v>0.3582829294082472</v>
       </c>
       <c r="I13">
-        <v>0.2599393579493814</v>
+        <v>0.1781623337786122</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7927773207179172</v>
+        <v>0.6511758899913218</v>
       </c>
       <c r="O13">
-        <v>1.448550438788999</v>
+        <v>2.184829802359786</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.292674724338383</v>
+        <v>4.151936701847603</v>
       </c>
       <c r="C14">
-        <v>0.3815253538617753</v>
+        <v>1.207053080730645</v>
       </c>
       <c r="D14">
-        <v>0.117176142465766</v>
+        <v>0.3474759176643829</v>
       </c>
       <c r="E14">
-        <v>0.6922948678940912</v>
+        <v>2.515935809541872</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3340906031593391</v>
+        <v>0.6848505572109786</v>
       </c>
       <c r="H14">
-        <v>0.4215940717668758</v>
+        <v>0.3532303164105599</v>
       </c>
       <c r="I14">
-        <v>0.2602087655124343</v>
+        <v>0.1760125081485882</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7925256730147794</v>
+        <v>0.6493986971054539</v>
       </c>
       <c r="O14">
-        <v>1.442233482632076</v>
+        <v>2.145691643547735</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.279062082978839</v>
+        <v>4.106451035390421</v>
       </c>
       <c r="C15">
-        <v>0.3776709442585116</v>
+        <v>1.194165635488162</v>
       </c>
       <c r="D15">
-        <v>0.1161150823874522</v>
+        <v>0.3434424316041174</v>
       </c>
       <c r="E15">
-        <v>0.6847812640872917</v>
+        <v>2.484152539908138</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3325544866149386</v>
+        <v>0.6766693083988571</v>
       </c>
       <c r="H15">
-        <v>0.4213289668501119</v>
+        <v>0.3501601049857896</v>
       </c>
       <c r="I15">
-        <v>0.2603788902444677</v>
+        <v>0.1747193937237839</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7923782940422655</v>
+        <v>0.6483339980633787</v>
       </c>
       <c r="O15">
-        <v>1.438388853119591</v>
+        <v>2.121871750796458</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.200999205588005</v>
+        <v>3.846364695321881</v>
       </c>
       <c r="C16">
-        <v>0.3555553404717102</v>
+        <v>1.12051364439597</v>
       </c>
       <c r="D16">
-        <v>0.1100456405173134</v>
+        <v>0.3204619701719338</v>
       </c>
       <c r="E16">
-        <v>0.6417752309760374</v>
+        <v>2.304187318308706</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3238460333736697</v>
+        <v>0.6304882660979985</v>
       </c>
       <c r="H16">
-        <v>0.4198959478975297</v>
+        <v>0.3329285235315211</v>
       </c>
       <c r="I16">
-        <v>0.2614318488204255</v>
+        <v>0.1676584378005792</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7916374686683696</v>
+        <v>0.6425888265687263</v>
       </c>
       <c r="O16">
-        <v>1.416734140311974</v>
+        <v>1.987614803147864</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.153062806073478</v>
+        <v>3.687275092252548</v>
       </c>
       <c r="C17">
-        <v>0.3419637878972424</v>
+        <v>1.075492699308654</v>
       </c>
       <c r="D17">
-        <v>0.1063320962832819</v>
+        <v>0.3064761229999107</v>
       </c>
       <c r="E17">
-        <v>0.6154366654292716</v>
+        <v>2.195573561619639</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3185874898250063</v>
+        <v>0.6027483536218199</v>
       </c>
       <c r="H17">
-        <v>0.4190936151605342</v>
+        <v>0.3226648802915122</v>
       </c>
       <c r="I17">
-        <v>0.2621472257548625</v>
+        <v>0.1636236726767812</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.791275671847302</v>
+        <v>0.6393717662119656</v>
       </c>
       <c r="O17">
-        <v>1.403785152989343</v>
+        <v>1.907145619594615</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.125474103808187</v>
+        <v>3.595923968302998</v>
       </c>
       <c r="C18">
-        <v>0.3341374303607552</v>
+        <v>1.049651003018937</v>
       </c>
       <c r="D18">
-        <v>0.1041997835428106</v>
+        <v>0.2984700961431059</v>
       </c>
       <c r="E18">
-        <v>0.6003030401099494</v>
+        <v>2.133703171528254</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3155935431691006</v>
+        <v>0.5869963853041895</v>
       </c>
       <c r="H18">
-        <v>0.4186602983889998</v>
+        <v>0.3168683017819376</v>
       </c>
       <c r="I18">
-        <v>0.2625841173189016</v>
+        <v>0.1614064204683174</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7911016753837998</v>
+        <v>0.637630368297593</v>
       </c>
       <c r="O18">
-        <v>1.396460050301471</v>
+        <v>1.861515476314509</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.116130174204727</v>
+        <v>3.565018698662584</v>
       </c>
       <c r="C19">
-        <v>0.3314860478143089</v>
+        <v>1.04090999436022</v>
       </c>
       <c r="D19">
-        <v>0.1034784403433662</v>
+        <v>0.2957657014063244</v>
       </c>
       <c r="E19">
-        <v>0.5951816771887337</v>
+        <v>2.112853139703162</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3145850884941979</v>
+        <v>0.5816966971478195</v>
       </c>
       <c r="H19">
-        <v>0.4185184170342211</v>
+        <v>0.3149234592356862</v>
       </c>
       <c r="I19">
-        <v>0.2627364000042292</v>
+        <v>0.1606729430310949</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7910486238095302</v>
+        <v>0.6370591080461452</v>
       </c>
       <c r="O19">
-        <v>1.394000944585144</v>
+        <v>1.846174302008961</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.158167482357612</v>
+        <v>3.704194225335129</v>
       </c>
       <c r="C20">
-        <v>0.3434115504925614</v>
+        <v>1.08027961330211</v>
       </c>
       <c r="D20">
-        <v>0.1067270346829616</v>
+        <v>0.3079609171672644</v>
       </c>
       <c r="E20">
-        <v>0.6182388196532997</v>
+        <v>2.207072222077386</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3191440969600592</v>
+        <v>0.605679972259054</v>
       </c>
       <c r="H20">
-        <v>0.4191761088335397</v>
+        <v>0.3237462743064867</v>
       </c>
       <c r="I20">
-        <v>0.2620684392508892</v>
+        <v>0.1640423502494031</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7913106575127244</v>
+        <v>0.6397028614820925</v>
       </c>
       <c r="O20">
-        <v>1.405150873481546</v>
+        <v>1.915643132414914</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.299201378811574</v>
+        <v>4.173759145965676</v>
       </c>
       <c r="C21">
-        <v>0.3833731576210653</v>
+        <v>1.213236760110078</v>
       </c>
       <c r="D21">
-        <v>0.1176851454873997</v>
+        <v>0.3494125594557858</v>
       </c>
       <c r="E21">
-        <v>0.6958987770053966</v>
+        <v>2.531217359810114</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.3348288889173432</v>
+        <v>0.6887866382207335</v>
       </c>
       <c r="H21">
-        <v>0.4217227232650345</v>
+        <v>0.3547092144797261</v>
       </c>
       <c r="I21">
-        <v>0.2601285696601039</v>
+        <v>0.1766389870971388</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7925981789636865</v>
+        <v>0.6499157004917322</v>
       </c>
       <c r="O21">
-        <v>1.444083778068062</v>
+        <v>2.157155251469646</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.391214701534636</v>
+        <v>4.482404041569396</v>
       </c>
       <c r="C22">
-        <v>0.4094095871954551</v>
+        <v>1.300748004429181</v>
       </c>
       <c r="D22">
-        <v>0.1248792321701728</v>
+        <v>0.3769072904572255</v>
       </c>
       <c r="E22">
-        <v>0.7468067570364241</v>
+        <v>2.749672399775065</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.3453561977830759</v>
+        <v>0.745215549444211</v>
       </c>
       <c r="H22">
-        <v>0.4236389825825313</v>
+        <v>0.3760320989848225</v>
       </c>
       <c r="I22">
-        <v>0.2590890001771697</v>
+        <v>0.1859175299348124</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7937424332167495</v>
+        <v>0.6576483686791192</v>
       </c>
       <c r="O22">
-        <v>1.470632404613838</v>
+        <v>2.32174584348104</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.342120602643718</v>
+        <v>4.317493279322036</v>
       </c>
       <c r="C23">
-        <v>0.3955209400106696</v>
+        <v>1.253977817714713</v>
       </c>
       <c r="D23">
-        <v>0.1210366501441342</v>
+        <v>0.362192676772338</v>
       </c>
       <c r="E23">
-        <v>0.7196215744520345</v>
+        <v>2.632408419769177</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.3397121083495449</v>
+        <v>0.7148893145168245</v>
       </c>
       <c r="H23">
-        <v>0.4225931364066184</v>
+        <v>0.3645452374995415</v>
       </c>
       <c r="I23">
-        <v>0.2596228643692662</v>
+        <v>0.1808632865048843</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7931040591310818</v>
+        <v>0.653420034276877</v>
       </c>
       <c r="O23">
-        <v>1.456361422674149</v>
+        <v>2.23323544556041</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.155859749770116</v>
+        <v>3.69654474183784</v>
       </c>
       <c r="C24">
-        <v>0.342757055609809</v>
+        <v>1.078115321908939</v>
       </c>
       <c r="D24">
-        <v>0.1065484747707899</v>
+        <v>0.3072895345569151</v>
       </c>
       <c r="E24">
-        <v>0.6169719386100354</v>
+        <v>2.201871905790298</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3188923637701038</v>
+        <v>0.6043539799805728</v>
       </c>
       <c r="H24">
-        <v>0.419138726372708</v>
+        <v>0.3232570531921084</v>
       </c>
       <c r="I24">
-        <v>0.2621039788674047</v>
+        <v>0.1638527485393695</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7912947345538015</v>
+        <v>0.6395528374444268</v>
       </c>
       <c r="O24">
-        <v>1.404533059290458</v>
+        <v>1.911799446184432</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9543040993675618</v>
+        <v>3.032419373199957</v>
       </c>
       <c r="C25">
-        <v>0.2855050429776043</v>
+        <v>0.8903876516983473</v>
       </c>
       <c r="D25">
-        <v>0.09105890053938026</v>
+        <v>0.2495002489593503</v>
       </c>
       <c r="E25">
-        <v>0.5068365844614391</v>
+        <v>1.75992823778769</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.2976036262695487</v>
+        <v>0.4927552169072698</v>
       </c>
       <c r="H25">
-        <v>0.4164886654822766</v>
+        <v>0.28274102931762</v>
       </c>
       <c r="I25">
-        <v>0.2657512451560784</v>
+        <v>0.1494001046919564</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7906473227258317</v>
+        <v>0.6287182952816579</v>
       </c>
       <c r="O25">
-        <v>1.3533168933985</v>
+        <v>1.589636199749151</v>
       </c>
     </row>
   </sheetData>
